--- a/individual_case_outputs/avey/137.xlsx
+++ b/individual_case_outputs/avey/137.xlsx
@@ -784,7 +784,7 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>common cold</t>
+          <t>viral pharyngitis</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
